--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="198" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="197" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>PCS</t>
   </si>
@@ -140,7 +140,7 @@
     <t>http://uk.farnell.com/maxim-integrated-products/max809seur-t/supervisor-circuit-5-5v-3sot23/dp/1188029?whydiditmatch=rel_3&amp;matchedProduct=MAX809SEUR%2BT&amp;matchedProduct=MAX809SEUR%2BT&amp;whydiditmatch=rel_3</t>
   </si>
   <si>
-    <t>gps </t>
+    <t>gps</t>
   </si>
   <si>
     <t>0.1uF capacitor</t>
@@ -188,7 +188,16 @@
     <t>Multiplexer?</t>
   </si>
   <si>
-    <t> plus</t>
+    <t>https://www.tindie.com/products/bot_thoughts/rc-rovermux-for-self-driving-robots/</t>
+  </si>
+  <si>
+    <t>http://www.bot-thoughts.com/2013/07/rover-rc-multiplexer.html</t>
+  </si>
+  <si>
+    <t>http://www.pololu.com/product/2806</t>
+  </si>
+  <si>
+    <t>plus</t>
   </si>
   <si>
     <t>plus ca.</t>
@@ -218,6 +227,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -239,20 +249,23 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +286,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF33CC66"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF23FF23"/>
-        <bgColor rgb="FF33CCCC"/>
+        <bgColor rgb="FF33CC66"/>
       </patternFill>
     </fill>
   </fills>
@@ -312,12 +331,16 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -333,11 +356,15 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -393,7 +420,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF33CC66"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -418,532 +445,556 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A8" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="B46" activeCellId="0" pane="topLeft" sqref="B46"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="E5" activeCellId="0" pane="topLeft" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.2244897959184"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.18877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.36224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.36224489795918"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.77551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.75"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="4" s="3">
-      <c r="A4" s="2" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="4" s="4">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>9.4</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>2025431</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="C6" s="0"/>
-      <c r="E6" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="8" s="2">
-      <c r="A8" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="8" s="3">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="C9" s="0"/>
-      <c r="E9" s="0"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0" t="s">
+      <c r="B10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <v>1650687</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="11">
-      <c r="C11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="0" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="11">
+      <c r="C11" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>1.44</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
+      <c r="E12" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="13">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>6.24</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>1273643</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="14">
-      <c r="B14" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="14">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <v>2296029</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="n">
+      <c r="B15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>2.31</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <v>9492615</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="16">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="n">
+      <c r="B16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>0.34</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="5" t="n">
         <v>3616186</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="17">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="5" t="n">
         <v>3617210</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="C18" s="0"/>
-      <c r="E18" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="19" s="3">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="19" s="4">
+      <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="C20" s="0"/>
-      <c r="E20" s="0"/>
+      <c r="C20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="s">
+      <c r="E21" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="22">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="5" t="n">
         <v>1700232</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="23">
+      <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>5.8</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="5" t="n">
         <v>2356218</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="24">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1" t="n">
+      <c r="B24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="5" t="n">
         <v>1700237</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="C25" s="0"/>
-      <c r="E25" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="26" s="5">
-      <c r="A26" s="2" t="s">
+      <c r="C25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="26" s="7">
+      <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="27">
+      <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="0" t="n">
+      <c r="C27" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="n">
         <v>5.12</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="5" t="n">
         <v>1188029</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="s">
+      <c r="E28" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="29">
+      <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" s="0" t="n">
+      <c r="C29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="n">
         <v>0.22</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="2" t="n">
         <v>1288255</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="31" s="3">
-      <c r="A31" s="2" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="31" s="4">
+      <c r="A31" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>29.99</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="33">
-      <c r="A33" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="33">
+      <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" s="0" t="n">
+      <c r="C33" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="n">
         <v>3.48</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="2" t="n">
         <v>1668259</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
-      <c r="C34" s="0"/>
-      <c r="E34" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="35" s="3">
-      <c r="A35" s="2" t="s">
+      <c r="C34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="35" s="4">
+      <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="36">
-      <c r="A36" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="36">
+      <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D36" s="0" t="n">
+      <c r="C36" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="n">
         <v>2.38</v>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36" s="5" t="n">
         <v>1668251</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
-      <c r="C37" s="0"/>
-      <c r="E37" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.85" outlineLevel="0" r="38" s="3">
-      <c r="A38" s="2" t="s">
+      <c r="C37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.85" outlineLevel="0" r="38" s="4">
+      <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="39">
-      <c r="A39" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="39">
+      <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C39" s="1" t="n">
+      <c r="B39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>8.96</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="2" t="n">
         <v>1668127</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
-      <c r="C40" s="0"/>
-      <c r="E40" s="0"/>
+      <c r="C40" s="1"/>
+      <c r="E40" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="0"/>
-      <c r="E41" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="42">
-      <c r="C42" s="0"/>
-      <c r="D42" s="0" t="n">
+      <c r="C41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="42">
+      <c r="A42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="43">
+      <c r="A43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+      <c r="A44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="45">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="n">
         <f aca="false">SUM(D39,D36,D33,D29,D27,D24,D23,D22,D17,D16,D15,D14,D13,D11,D5)</f>
         <v>50.24</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="0" t="n">
+      <c r="E45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="G42" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="0" t="n">
+      <c r="G45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I42" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <f aca="false">H42+F42+D42</f>
+      <c r="I45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <f aca="false">H45+F45+D45</f>
         <v>96.24</v>
       </c>
-      <c r="K42" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="43">
-      <c r="C43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>62</v>
+      <c r="K45" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="46">
+      <c r="C46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -89,10 +89,10 @@
     <t>2.2 A</t>
   </si>
   <si>
-    <t>JST connector 2mm, 2way, right angle</t>
-  </si>
-  <si>
-    <t>http://uk.farnell.com/jst-japan-solderless-terminals/s2b-ph-sm4-tb-lf-sn/connector-header-smt-r-a-2mm-2way/dp/9492615</t>
+    <t>JST connector 2mm, 2way</t>
+  </si>
+  <si>
+    <t>http://uk.farnell.com/jst-japan-solderless-terminals/b2b-ph-sm4-tb-lf-sn/connector-header-smt-2mm-2way/dp/9492534?Ntt=9492534</t>
   </si>
   <si>
     <t>JST housing, 2way plug</t>
@@ -448,7 +448,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="E5" activeCellId="0" pane="topLeft" sqref="E5"/>
+      <selection activeCell="A15" activeCellId="0" pane="topLeft" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -627,8 +627,8 @@
       <c r="D15" s="1" t="n">
         <v>2.31</v>
       </c>
-      <c r="E15" s="5" t="n">
-        <v>9492615</v>
+      <c r="E15" s="1" t="n">
+        <v>9492534</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>25</v>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="197" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="91" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>PCS</t>
   </si>
@@ -71,6 +71,12 @@
     <t>AAA battery</t>
   </si>
   <si>
+    <t>DC/DC converter</t>
+  </si>
+  <si>
+    <t>http://uk.farnell.com/tracopower/tsr-1-2450/converter-dc-dc-5v-1a-sip/dp/1696320?Ntt=1696320</t>
+  </si>
+  <si>
     <t>Linear regulator</t>
   </si>
   <si>
@@ -80,7 +86,7 @@
     <t>3 A</t>
   </si>
   <si>
-    <t>OR 1</t>
+    <t>too high temperature!!!</t>
   </si>
   <si>
     <t>http://uk.farnell.com/micro-commercial-components/mc7805ct-bp/ldo-2vdo-1a-5v-3to220/dp/2296029</t>
@@ -265,7 +271,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +298,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF23FF23"/>
         <bgColor rgb="FF33CC66"/>
       </patternFill>
@@ -331,7 +343,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -360,11 +372,19 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -445,10 +465,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A15" activeCellId="0" pane="topLeft" sqref="A15"/>
+      <selection activeCell="J13" activeCellId="0" pane="topLeft" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -571,430 +591,453 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="n">
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>1696320</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="14">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="n">
         <v>6.24</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E14" s="8" t="n">
         <v>1273643</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="14">
-      <c r="B14" s="1" t="s">
+      <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="n">
+      <c r="G14" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="15">
+      <c r="A15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="n">
         <v>0.35</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E15" s="8" t="n">
         <v>2296029</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="15">
-      <c r="A15" s="1" t="s">
+      <c r="F15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>9492534</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.65" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="2" t="n">
         <v>10</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>3616186</v>
+        <v>2.31</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>9492534</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3</v>
+        <v>0.34</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3617210</v>
+        <v>3616186</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="C18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="19" s="4">
-      <c r="A19" s="3" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="18">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="C20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3617210</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="20" s="4">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="n">
+      <c r="C21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="22">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>1700232</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E22" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>50</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>5.8</v>
+        <v>0.4</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2356218</v>
+        <v>1700232</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1700237</v>
+        <v>2356218</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="C25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="26" s="7">
-      <c r="A26" s="3" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="25">
+      <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="27">
-      <c r="A27" s="1" t="s">
+      <c r="B25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>1700237</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>1188029</v>
-      </c>
-      <c r="F27" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+      <c r="C26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="27" s="9">
+      <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>1188029</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="29">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="29">
-      <c r="A29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1" t="n">
+      <c r="E29" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="30">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="n">
         <v>0.22</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E30" s="2" t="n">
         <v>1288255</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="31" s="4">
-      <c r="A31" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="32">
-      <c r="A32" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="n">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="32" s="4">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="33">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="n">
         <v>29.99</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="33">
-      <c r="A33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1" t="n">
+      <c r="F33" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="34">
+      <c r="A34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="n">
         <v>3.48</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E34" s="2" t="n">
         <v>1668259</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
-      <c r="C34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="35" s="4">
-      <c r="A35" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="36">
-      <c r="A36" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1" t="n">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+      <c r="C35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="36" s="4">
+      <c r="A36" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="37">
+      <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="n">
         <v>2.38</v>
       </c>
-      <c r="E36" s="5" t="n">
+      <c r="E37" s="5" t="n">
         <v>1668251</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
-      <c r="C37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.85" outlineLevel="0" r="38" s="4">
-      <c r="A38" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="39">
-      <c r="A39" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C39" s="6" t="n">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+      <c r="C38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="39" s="4">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="40">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D40" s="1" t="n">
         <v>8.96</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E40" s="2" t="n">
         <v>1668127</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
-      <c r="C40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="42">
-      <c r="A42" s="1"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="43">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="43">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+      <c r="H43" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="44">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
       <c r="E44" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="45">
+      <c r="F44" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+      <c r="A45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1" t="n">
-        <f aca="false">SUM(D39,D36,D33,D29,D27,D24,D23,D22,D17,D16,D15,D14,D13,D11,D5)</f>
+      <c r="E45" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="46">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="n">
+        <f aca="false">SUM(D40,D37,D34,D30,D28,D25,D24,D23,D18,D17,D16,D15,D14,D11,D5)</f>
         <v>50.24</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="1" t="n">
+      <c r="E46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H45" s="1" t="n">
+      <c r="G46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J45" s="1" t="n">
-        <f aca="false">H45+F45+D45</f>
+      <c r="I46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <f aca="false">H46+F46+D46</f>
         <v>96.24</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.95" outlineLevel="0" r="46">
-      <c r="C46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="47">
+      <c r="C47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
